--- a/SchedulingData/dynamic14/pso/scheduling1_7.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling1_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,112 +466,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>75.90000000000001</v>
+        <v>55.2</v>
       </c>
       <c r="E2" t="n">
-        <v>27.04</v>
+        <v>25.68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>50.2</v>
+        <v>55.48</v>
       </c>
       <c r="E3" t="n">
-        <v>25.68</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>68.86</v>
+        <v>41.76</v>
       </c>
       <c r="E4" t="n">
-        <v>26.304</v>
+        <v>26.524</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>83.3</v>
+        <v>48.86</v>
       </c>
       <c r="E5" t="n">
-        <v>27.8</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50.2</v>
+        <v>41.76</v>
       </c>
       <c r="D6" t="n">
-        <v>99.09999999999999</v>
+        <v>105.3</v>
       </c>
       <c r="E6" t="n">
-        <v>22.92</v>
+        <v>22.78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>75.90000000000001</v>
+        <v>55.48</v>
       </c>
       <c r="D7" t="n">
-        <v>142.98</v>
+        <v>104.32</v>
       </c>
       <c r="E7" t="n">
-        <v>22.932</v>
+        <v>22.408</v>
       </c>
     </row>
     <row r="8">
@@ -580,74 +580,74 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>142.98</v>
+        <v>55.2</v>
       </c>
       <c r="D8" t="n">
-        <v>214.4</v>
+        <v>131.26</v>
       </c>
       <c r="E8" t="n">
-        <v>18.9</v>
+        <v>23.184</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>214.4</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>261.46</v>
+        <v>86.3</v>
       </c>
       <c r="E9" t="n">
-        <v>16.304</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>68.86</v>
+        <v>48.86</v>
       </c>
       <c r="D10" t="n">
-        <v>152.34</v>
+        <v>143.16</v>
       </c>
       <c r="E10" t="n">
-        <v>23.056</v>
+        <v>22.464</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>131.26</v>
       </c>
       <c r="D11" t="n">
-        <v>74.8</v>
+        <v>169.92</v>
       </c>
       <c r="E11" t="n">
-        <v>26.16</v>
+        <v>20.448</v>
       </c>
     </row>
     <row r="12">
@@ -656,131 +656,131 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>99.09999999999999</v>
+        <v>143.16</v>
       </c>
       <c r="D12" t="n">
-        <v>148.88</v>
+        <v>198.06</v>
       </c>
       <c r="E12" t="n">
-        <v>19.072</v>
+        <v>19.084</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>104.32</v>
       </c>
       <c r="D13" t="n">
-        <v>67.3</v>
+        <v>146.92</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92</v>
+        <v>19.288</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>152.34</v>
+        <v>105.3</v>
       </c>
       <c r="D14" t="n">
-        <v>238.24</v>
+        <v>158.7</v>
       </c>
       <c r="E14" t="n">
-        <v>18.576</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>148.88</v>
+        <v>158.7</v>
       </c>
       <c r="D15" t="n">
-        <v>201.4</v>
+        <v>199.92</v>
       </c>
       <c r="E15" t="n">
-        <v>16.42</v>
+        <v>16.068</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>74.8</v>
+        <v>198.06</v>
       </c>
       <c r="D16" t="n">
-        <v>136.74</v>
+        <v>255.06</v>
       </c>
       <c r="E16" t="n">
-        <v>22.576</v>
+        <v>16.004</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>83.3</v>
+        <v>255.06</v>
       </c>
       <c r="D17" t="n">
-        <v>129.52</v>
+        <v>306.68</v>
       </c>
       <c r="E17" t="n">
-        <v>24.808</v>
+        <v>11.972</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>261.46</v>
+        <v>86.3</v>
       </c>
       <c r="D18" t="n">
-        <v>306.64</v>
+        <v>153.38</v>
       </c>
       <c r="E18" t="n">
-        <v>12.916</v>
+        <v>21.392</v>
       </c>
     </row>
     <row r="19">
@@ -789,98 +789,98 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>129.52</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>179.04</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>20.496</v>
+        <v>26.612</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>179.04</v>
+        <v>199.92</v>
       </c>
       <c r="D20" t="n">
-        <v>237.58</v>
+        <v>248.58</v>
       </c>
       <c r="E20" t="n">
-        <v>16.752</v>
+        <v>13.332</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>67.3</v>
+        <v>146.92</v>
       </c>
       <c r="D21" t="n">
-        <v>110.9</v>
+        <v>188.42</v>
       </c>
       <c r="E21" t="n">
-        <v>23.2</v>
+        <v>16.768</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>110.9</v>
+        <v>188.42</v>
       </c>
       <c r="D22" t="n">
-        <v>186.56</v>
+        <v>243.46</v>
       </c>
       <c r="E22" t="n">
-        <v>19.724</v>
+        <v>13.864</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>186.56</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>249.72</v>
+        <v>112.82</v>
       </c>
       <c r="E23" t="n">
-        <v>16.508</v>
+        <v>23.028</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -888,146 +888,146 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>249.72</v>
+        <v>243.46</v>
       </c>
       <c r="D24" t="n">
-        <v>306.34</v>
+        <v>295.18</v>
       </c>
       <c r="E24" t="n">
-        <v>12.476</v>
+        <v>9.832000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>136.74</v>
+        <v>112.82</v>
       </c>
       <c r="D25" t="n">
-        <v>217.74</v>
+        <v>177.04</v>
       </c>
       <c r="E25" t="n">
-        <v>18.076</v>
+        <v>18.716</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>238.24</v>
+        <v>177.04</v>
       </c>
       <c r="D26" t="n">
-        <v>323.14</v>
+        <v>240.54</v>
       </c>
       <c r="E26" t="n">
-        <v>13.716</v>
+        <v>15.956</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>306.64</v>
+        <v>306.68</v>
       </c>
       <c r="D27" t="n">
-        <v>360.28</v>
+        <v>378.48</v>
       </c>
       <c r="E27" t="n">
-        <v>9.172000000000001</v>
+        <v>7.892</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>201.4</v>
+        <v>295.18</v>
       </c>
       <c r="D28" t="n">
-        <v>240.06</v>
+        <v>356.6</v>
       </c>
       <c r="E28" t="n">
-        <v>13.684</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>323.14</v>
+        <v>169.92</v>
       </c>
       <c r="D29" t="n">
-        <v>386.04</v>
+        <v>230.72</v>
       </c>
       <c r="E29" t="n">
-        <v>9.555999999999999</v>
+        <v>16.488</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>237.58</v>
+        <v>248.58</v>
       </c>
       <c r="D30" t="n">
-        <v>273.94</v>
+        <v>317.44</v>
       </c>
       <c r="E30" t="n">
-        <v>14.256</v>
+        <v>10.076</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>240.06</v>
+        <v>240.54</v>
       </c>
       <c r="D31" t="n">
-        <v>293.4</v>
+        <v>315.94</v>
       </c>
       <c r="E31" t="n">
-        <v>10.46</v>
+        <v>12.996</v>
       </c>
     </row>
     <row r="32">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>306.34</v>
+        <v>153.38</v>
       </c>
       <c r="D32" t="n">
-        <v>350.2</v>
+        <v>221.28</v>
       </c>
       <c r="E32" t="n">
-        <v>9.220000000000001</v>
+        <v>17.232</v>
       </c>
     </row>
     <row r="33">
@@ -1055,74 +1055,74 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>293.4</v>
+        <v>378.48</v>
       </c>
       <c r="D33" t="n">
-        <v>327.58</v>
+        <v>441.38</v>
       </c>
       <c r="E33" t="n">
-        <v>8.172000000000001</v>
+        <v>5.692</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>327.58</v>
+        <v>230.72</v>
       </c>
       <c r="D34" t="n">
-        <v>390.58</v>
+        <v>301.72</v>
       </c>
       <c r="E34" t="n">
-        <v>3.492</v>
+        <v>12.008</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>217.74</v>
+        <v>356.6</v>
       </c>
       <c r="D35" t="n">
-        <v>264.1</v>
+        <v>429.94</v>
       </c>
       <c r="E35" t="n">
-        <v>15.06</v>
+        <v>2.576</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>390.58</v>
+        <v>301.72</v>
       </c>
       <c r="D36" t="n">
-        <v>439.02</v>
+        <v>343.98</v>
       </c>
       <c r="E36" t="n">
-        <v>0.268</v>
+        <v>9.412000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1131,74 +1131,74 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>439.02</v>
+        <v>441.38</v>
       </c>
       <c r="D37" t="n">
-        <v>529.98</v>
+        <v>528.58</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>2.052</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>273.94</v>
+        <v>429.94</v>
       </c>
       <c r="D38" t="n">
-        <v>340.84</v>
+        <v>516.29</v>
       </c>
       <c r="E38" t="n">
-        <v>10.176</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>264.1</v>
+        <v>516.29</v>
       </c>
       <c r="D39" t="n">
-        <v>351.2</v>
+        <v>575.33</v>
       </c>
       <c r="E39" t="n">
-        <v>11.94</v>
+        <v>26.776</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>340.84</v>
+        <v>221.28</v>
       </c>
       <c r="D40" t="n">
-        <v>402.36</v>
+        <v>279.86</v>
       </c>
       <c r="E40" t="n">
-        <v>6.144</v>
+        <v>13.984</v>
       </c>
     </row>
     <row r="41">
@@ -1207,55 +1207,55 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>350.2</v>
+        <v>279.86</v>
       </c>
       <c r="D41" t="n">
-        <v>393.76</v>
+        <v>341.42</v>
       </c>
       <c r="E41" t="n">
-        <v>6.484</v>
+        <v>10.968</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>386.04</v>
+        <v>315.94</v>
       </c>
       <c r="D42" t="n">
-        <v>422.54</v>
+        <v>393.74</v>
       </c>
       <c r="E42" t="n">
-        <v>7.036</v>
+        <v>8.316000000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>351.2</v>
+        <v>393.74</v>
       </c>
       <c r="D43" t="n">
-        <v>429.48</v>
+        <v>449.04</v>
       </c>
       <c r="E43" t="n">
-        <v>9.212</v>
+        <v>4.896</v>
       </c>
     </row>
     <row r="44">
@@ -1264,17 +1264,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>393.76</v>
+        <v>341.42</v>
       </c>
       <c r="D44" t="n">
-        <v>453.72</v>
+        <v>380</v>
       </c>
       <c r="E44" t="n">
-        <v>4.108</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="45">
@@ -1283,74 +1283,74 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>360.28</v>
+        <v>343.98</v>
       </c>
       <c r="D45" t="n">
-        <v>400.88</v>
+        <v>405.38</v>
       </c>
       <c r="E45" t="n">
-        <v>5.752</v>
+        <v>7.372</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>400.88</v>
+        <v>317.44</v>
       </c>
       <c r="D46" t="n">
-        <v>476.98</v>
+        <v>361</v>
       </c>
       <c r="E46" t="n">
-        <v>3.712</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>529.98</v>
+        <v>380</v>
       </c>
       <c r="D47" t="n">
-        <v>596.1799999999999</v>
+        <v>435.22</v>
       </c>
       <c r="E47" t="n">
-        <v>26.04</v>
+        <v>5.328</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>402.36</v>
+        <v>361</v>
       </c>
       <c r="D48" t="n">
-        <v>457.5</v>
+        <v>435.7</v>
       </c>
       <c r="E48" t="n">
-        <v>3.24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>453.72</v>
+        <v>435.22</v>
       </c>
       <c r="D49" t="n">
-        <v>528.62</v>
+        <v>497.32</v>
       </c>
       <c r="E49" t="n">
-        <v>0.728</v>
+        <v>1.248</v>
       </c>
     </row>
     <row r="50">
@@ -1382,10 +1382,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>528.62</v>
+        <v>497.32</v>
       </c>
       <c r="D50" t="n">
-        <v>613.86</v>
+        <v>561.8200000000001</v>
       </c>
       <c r="E50" t="n">
         <v>30</v>
@@ -1397,17 +1397,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>422.54</v>
+        <v>575.33</v>
       </c>
       <c r="D51" t="n">
-        <v>474.64</v>
+        <v>609.51</v>
       </c>
       <c r="E51" t="n">
-        <v>2.956</v>
+        <v>24.488</v>
       </c>
     </row>
     <row r="52">
@@ -1416,55 +1416,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>457.5</v>
+        <v>449.04</v>
       </c>
       <c r="D52" t="n">
-        <v>542.52</v>
+        <v>484.2</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>542.52</v>
+        <v>405.38</v>
       </c>
       <c r="D53" t="n">
-        <v>595.8200000000001</v>
+        <v>478</v>
       </c>
       <c r="E53" t="n">
-        <v>26.36</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>5</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>pond23</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>429.48</v>
-      </c>
-      <c r="D54" t="n">
-        <v>484.7</v>
-      </c>
-      <c r="E54" t="n">
-        <v>6.3</v>
+        <v>4.72</v>
       </c>
     </row>
   </sheetData>
